--- a/data/ARA_treningslog.xlsx
+++ b/data/ARA_treningslog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxul\OneDrive\Dokumenter\Coding\STA400\STA400\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A014FE-85D0-4D3B-8620-5846898186B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163762B-034C-4650-9364-41C9BF2B7CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{41D36819-5A9F-4562-9EEE-5015C07805B2}"/>
   </bookViews>
@@ -48084,20 +48084,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143584A8-1B09-438B-8F47-876FC44CED4F}">
-  <dimension ref="A1:DD204"/>
+  <dimension ref="A1:DF209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DD186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
+      <selection pane="bottomRight" activeCell="DD211" sqref="DD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.26953125" style="1" customWidth="1"/>
-    <col min="3" max="107" width="1.7265625" style="1" customWidth="1"/>
+    <col min="3" max="106" width="1.7265625" style="1" customWidth="1"/>
+    <col min="107" max="107" width="4.81640625" style="1" customWidth="1"/>
     <col min="108" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -67778,7 +67779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:108" customFormat="1">
+    <row r="193" spans="1:110" customFormat="1">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -67789,7 +67790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:108" customFormat="1">
+    <row r="194" spans="1:110" customFormat="1">
       <c r="A194" t="s">
         <v>310</v>
       </c>
@@ -67800,7 +67801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:108" customFormat="1">
+    <row r="195" spans="1:110" customFormat="1">
       <c r="A195" t="s">
         <v>322</v>
       </c>
@@ -67811,7 +67812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:108" customFormat="1">
+    <row r="196" spans="1:110" customFormat="1">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -67822,7 +67823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:108" customFormat="1">
+    <row r="197" spans="1:110" customFormat="1">
       <c r="A197" t="s">
         <v>242</v>
       </c>
@@ -67833,7 +67834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:108" customFormat="1">
+    <row r="198" spans="1:110" customFormat="1">
       <c r="A198" t="s">
         <v>296</v>
       </c>
@@ -67844,7 +67845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:108" customFormat="1">
+    <row r="199" spans="1:110" customFormat="1">
       <c r="A199" t="s">
         <v>308</v>
       </c>
@@ -67855,7 +67856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:108" customFormat="1">
+    <row r="200" spans="1:110" customFormat="1">
       <c r="A200" t="s">
         <v>347</v>
       </c>
@@ -67866,7 +67867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:108" customFormat="1">
+    <row r="201" spans="1:110" customFormat="1">
       <c r="A201" t="s">
         <v>361</v>
       </c>
@@ -67877,7 +67878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:108" customFormat="1">
+    <row r="202" spans="1:110" customFormat="1">
       <c r="A202" t="s">
         <v>275</v>
       </c>
@@ -68203,8 +68204,25 @@
         <v>1459.5</v>
       </c>
     </row>
-    <row r="203" spans="1:108" customFormat="1"/>
-    <row r="204" spans="1:108" customFormat="1"/>
+    <row r="203" spans="1:110" customFormat="1"/>
+    <row r="204" spans="1:110" customFormat="1"/>
+    <row r="205" spans="1:110" customFormat="1"/>
+    <row r="206" spans="1:110">
+      <c r="DE206"/>
+      <c r="DF206"/>
+    </row>
+    <row r="207" spans="1:110">
+      <c r="DE207"/>
+      <c r="DF207"/>
+    </row>
+    <row r="208" spans="1:110">
+      <c r="DE208"/>
+      <c r="DF208"/>
+    </row>
+    <row r="209" spans="109:110">
+      <c r="DE209"/>
+      <c r="DF209"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:DD201">
     <sortCondition descending="1" ref="DD3:DD201"/>
@@ -68214,6 +68232,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037C21C8E4CAD084EAD5040F4BE390BEB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e71302a1c8dd0c55d20aaf83ffbc770d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f939719-57d6-4c18-85f5-f88484f0aba4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c20ad6e4563448587c60b81aa897cc1" ns3:_="">
     <xsd:import namespace="8f939719-57d6-4c18-85f5-f88484f0aba4"/>
@@ -68359,22 +68392,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BF8F91-686F-4A97-98BB-1217BB60EF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8f939719-57d6-4c18-85f5-f88484f0aba4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3269E078-CD72-49AF-9E8B-DC927277F801}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{638E2582-7081-466A-B5A2-8BF688C2C7B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68390,28 +68432,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3269E078-CD72-49AF-9E8B-DC927277F801}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BF8F91-686F-4A97-98BB-1217BB60EF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8f939719-57d6-4c18-85f5-f88484f0aba4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ARA_treningslog.xlsx
+++ b/data/ARA_treningslog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxul\OneDrive\Dokumenter\Coding\STA400\STA400\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163762B-034C-4650-9364-41C9BF2B7CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF3F14-5FB4-4258-A375-099E720233C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{41D36819-5A9F-4562-9EEE-5015C07805B2}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{41D36819-5A9F-4562-9EEE-5015C07805B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-21" sheetId="1" r:id="rId1"/>
-    <sheet name="2021-2022" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
+    <sheet name="2020-21" sheetId="1" r:id="rId2"/>
+    <sheet name="2021-2022" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1305,6 +1306,6265 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1106122268424318E-2"/>
+          <c:y val="2.5022868724552939E-2"/>
+          <c:w val="0.86372423250464481"/>
+          <c:h val="0.64994063099743515"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2020-21'!$B$1:$DR$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2020-21'!$B$245:$DR$245</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BA1-4AA4-AF4C-65EC9783EF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2083119215"/>
+        <c:axId val="2083123375"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2083119215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083123375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2083123375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083119215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2021-2022'!$B$1:$DC$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44457</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44506</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44507</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44521</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44534</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44535</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44541</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44548</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44549</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44551</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44556</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44558</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44577</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44604</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44605</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44639</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021-2022'!$B$202:$DC$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FED1-4454-8145-64226EB74B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2083125039"/>
+        <c:axId val="2083155407"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2083125039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083155407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2083155407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083125039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>20-21</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2020-21'!$B$1:$DR$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2020-21'!$B$245:$DR$245</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81A4-48AB-97F4-AEB7E0FFA348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2049671567"/>
+        <c:axId val="2049671151"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2049671567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049671151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2049671151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049671567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>21-22</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2021-2022'!$B$1:$DC$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44457</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44506</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44507</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44521</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44534</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44535</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44541</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44548</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44549</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44551</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44556</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44558</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44577</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44604</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44605</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44639</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021-2022'!$B$202:$DC$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4213-4264-8504-BA2976BFF0AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1934781983"/>
+        <c:axId val="1934768255"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1934781983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934768255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1934768255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934781983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393712</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88912</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>139712</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CD10B4-CB27-1B71-718D-B085B33152B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388937</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>56583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>1814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A05BC8A-D858-B63E-67F8-85C53820EECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED77E54-0DAE-B4D3-BD9F-4F2E2B41874B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6803</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4678547A-D9C6-AD10-BF42-B0989505BE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1601,20 +7861,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61F750-C05C-4208-ACEA-108A144089DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B0931-8D84-44AA-BFFF-5220FC3667C9}">
   <dimension ref="A1:XFD245"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DS234" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A234" sqref="A234"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="1" sqref="B245:DR245 B1:DR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="122" width="2.6328125" customWidth="1"/>
+    <col min="2" max="118" width="1.26953125" customWidth="1"/>
+    <col min="119" max="122" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:123" ht="37.5">
@@ -48082,15 +54358,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143584A8-1B09-438B-8F47-876FC44CED4F}">
   <dimension ref="A1:DF209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I186" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DD211" sqref="DD211"/>
+      <selection pane="bottomRight" activeCell="B202" activeCellId="1" sqref="B1:DC1 B202:DC202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -68232,21 +74508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037C21C8E4CAD084EAD5040F4BE390BEB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e71302a1c8dd0c55d20aaf83ffbc770d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f939719-57d6-4c18-85f5-f88484f0aba4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c20ad6e4563448587c60b81aa897cc1" ns3:_="">
     <xsd:import namespace="8f939719-57d6-4c18-85f5-f88484f0aba4"/>
@@ -68392,31 +74653,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BF8F91-686F-4A97-98BB-1217BB60EF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8f939719-57d6-4c18-85f5-f88484f0aba4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3269E078-CD72-49AF-9E8B-DC927277F801}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{638E2582-7081-466A-B5A2-8BF688C2C7B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68432,4 +74684,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3269E078-CD72-49AF-9E8B-DC927277F801}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BF8F91-686F-4A97-98BB-1217BB60EF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8f939719-57d6-4c18-85f5-f88484f0aba4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>